--- a/biology/Microbiologie/Foettingeriidae/Foettingeriidae.xlsx
+++ b/biology/Microbiologie/Foettingeriidae/Foettingeriidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Foettingeriidae sont une famille de Ciliés de la classe des Kinetofragminophora et de l’ordre des Apostomatida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Foettingeria, nommé en l'honneur de Alexandre Foettinger (d), zoologiste belge.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille est caractérisée par un cytostome ventral si petit que l'ingestion est probablement limitée à des liquides ou à de minuscules particules. Une « rosette » particulière est caractéristique de la face ventrale. Chez Foettingeria, le cytostome se trouve au fond d'un sillon, dans une petite dépression à côté de la rosette, et débouche dans un canal qui mène vers l'intérieur, le long de la paroi concave (le « typhlosole ») de la rosette, à une « poche buccale ».
-La rosette comporte 8 à 10 septa verticaux qui relient la paroi externe au« typhlosole », dont la base est munie d'un anneau de cils. Il y a moins de 22 rangées complètes de cils somatiques[1].
+La rosette comporte 8 à 10 septa verticaux qui relient la paroi externe au« typhlosole », dont la base est munie d'un anneau de cils. Il y a moins de 22 rangées complètes de cils somatiques.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Cycle de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces organismes connaissent un cycle caractéristique et complexe. Au stade de croissance, ou « trophonte », la nourriture est ingérée et accumulée mais il n'y a pas de processus de reproduction. 
-À maturité, le « trophonte » cesse de s'alimenter, et avec ou sans enkystement selon les espèces, se transforme en « protomonte ». Si ce dernier est dans un état enkysté, les cils sont éliminés. Le « protomonte » se transforme en un « tomonte » dans lequel la nourriture ingérée est stockée. Ensuite démarre une série de scissions qui génèrent de nombreux petits « protomites », chacun devenant un « tomite » nageant librement, qui, après migration, finit par s'attacher au corps d'un hôte, généralement un crustacé[1].
+À maturité, le « trophonte » cesse de s'alimenter, et avec ou sans enkystement selon les espèces, se transforme en « protomonte ». Si ce dernier est dans un état enkysté, les cils sont éliminés. Le « protomonte » se transforme en un « tomonte » dans lequel la nourriture ingérée est stockée. Ensuite démarre une série de scissions qui génèrent de nombreux petits « protomites », chacun devenant un « tomite » nageant librement, qui, après migration, finit par s'attacher au corps d'un hôte, généralement un crustacé.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille ont été signalés un peu partout dans le monde[2]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille ont été signalés un peu partout dans le monde. 
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (27 avril 2023)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (27 avril 2023) :
 Foettingeria Caullery &amp; Mesnil, 1903 genre type
 Gymnodinioides Minkiewicz, 1912
 Hyalophysa Bradbury, 1966
@@ -653,7 +675,7 @@
 Terebrospira Debaisieux, 1960
 Traumatiophtora Chatton &amp; Lwoff, 1931
 Vampyrophrya Chatton &amp; Lwoff, 1931
-Selon The Taxonomicon  (3 mai 2023)[3] :
+Selon The Taxonomicon  (3 mai 2023) :
 Jeppsia Corliss, 1960
 Kofoidella Cépède, 1910
 Perezella Cépède, 1910
@@ -702,9 +724,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Foettingeriidae Chatton, 1911[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Foettingeriidae Chatton, 1911.
 </t>
         </is>
       </c>
